--- a/SVHN/abalation/original/count.xlsx
+++ b/SVHN/abalation/original/count.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D55D148-1C5D-43FD-A9D1-81E73B3525F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D051176-2E38-4584-BF7E-6F80E2F88F66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>svhn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semeion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -368,413 +355,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>99.47</v>
-      </c>
-      <c r="B2">
-        <v>99.52</v>
-      </c>
-      <c r="C2">
-        <v>99.53</v>
-      </c>
-      <c r="D2">
-        <v>99.58</v>
-      </c>
-      <c r="E2">
-        <v>99.5</v>
-      </c>
-      <c r="G2" s="1">
-        <f>AVERAGE(A2:E2)</f>
-        <v>99.52</v>
-      </c>
-      <c r="H2" s="1">
-        <f>AVERAGE(STDEV(A2:E2))</f>
-        <v>4.062019202317959E-2</v>
+      <c r="A1">
+        <v>94.81</v>
+      </c>
+      <c r="B1">
+        <v>95.76</v>
+      </c>
+      <c r="C1">
+        <v>95.3</v>
+      </c>
+      <c r="D1">
+        <v>95.09</v>
+      </c>
+      <c r="E1">
+        <v>95.32</v>
+      </c>
+      <c r="G1" s="1">
+        <f>AVERAGE(A1:E1)</f>
+        <v>95.256</v>
+      </c>
+      <c r="H1" s="1">
+        <f>AVERAGE(STDEV(A1:E1))</f>
+        <v>0.34875492828059107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="B3">
+        <v>66.238</v>
+      </c>
+      <c r="C3">
+        <v>69.007000000000005</v>
+      </c>
+      <c r="D3">
+        <v>70.176000000000002</v>
+      </c>
+      <c r="E3">
+        <v>72.870999999999995</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G13" si="0">AVERAGE(A3:E3)</f>
+        <v>69.650399999999991</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H13" si="1">AVERAGE(STDEV(A3:E3))</f>
+        <v>2.3876143532823701</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>98.831000000000003</v>
+        <v>95.668000000000006</v>
       </c>
       <c r="B4">
-        <v>97.582999999999998</v>
+        <v>95.168000000000006</v>
       </c>
       <c r="C4">
-        <v>97.715000000000003</v>
+        <v>95.478999999999999</v>
       </c>
       <c r="D4">
-        <v>98.328000000000003</v>
+        <v>95.003</v>
       </c>
       <c r="E4">
-        <v>97.766000000000005</v>
+        <v>95.98</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G23" si="0">AVERAGE(A4:E4)</f>
-        <v>98.044600000000003</v>
+        <f t="shared" si="0"/>
+        <v>95.459599999999995</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H23" si="1">AVERAGE(STDEV(A4:E4))</f>
-        <v>0.52394398555570865</v>
+        <f t="shared" si="1"/>
+        <v>0.38991576013287887</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>99.447999999999993</v>
+        <v>90.007000000000005</v>
       </c>
       <c r="B5">
-        <v>99.27</v>
+        <v>89.700999999999993</v>
       </c>
       <c r="C5">
-        <v>99.302999999999997</v>
+        <v>90.013999999999996</v>
       </c>
       <c r="D5">
-        <v>99.495000000000005</v>
+        <v>90.652000000000001</v>
       </c>
       <c r="E5">
-        <v>98.796000000000006</v>
+        <v>90.777000000000001</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>99.262399999999985</v>
+        <v>90.230199999999996</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0.2773919609505624</v>
+        <v>0.46193040601372209</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>97.262</v>
+        <v>98.409000000000006</v>
       </c>
       <c r="B6">
-        <v>96.81</v>
+        <v>98.27</v>
       </c>
       <c r="C6">
-        <v>96.831999999999994</v>
+        <v>98.332999999999998</v>
       </c>
       <c r="D6">
-        <v>97.138999999999996</v>
+        <v>98.125</v>
       </c>
       <c r="E6">
-        <v>96.951999999999998</v>
+        <v>98.495000000000005</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>96.998999999999995</v>
+        <v>98.326400000000007</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>0.19658840250635365</v>
+        <v>0.14056599873369355</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>98.941999999999993</v>
+        <v>87.587000000000003</v>
       </c>
       <c r="B7">
-        <v>97.659000000000006</v>
+        <v>86.183999999999997</v>
       </c>
       <c r="C7">
-        <v>98.322999999999993</v>
+        <v>86.79</v>
       </c>
       <c r="D7">
-        <v>98.742000000000004</v>
+        <v>85.908000000000001</v>
       </c>
       <c r="E7">
-        <v>97.378</v>
+        <v>88.513000000000005</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>98.208799999999997</v>
+        <v>86.996400000000023</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>0.6759132340766798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>99.759</v>
-      </c>
-      <c r="B8">
-        <v>99.745000000000005</v>
-      </c>
-      <c r="C8">
-        <v>99.665000000000006</v>
-      </c>
-      <c r="D8">
-        <v>99.808000000000007</v>
-      </c>
-      <c r="E8">
-        <v>99.277000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="0"/>
-        <v>99.650800000000004</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.21518643079897168</v>
+        <v>1.0649053009540355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>64.131</v>
+      </c>
+      <c r="B9">
+        <v>67.123000000000005</v>
+      </c>
+      <c r="C9">
+        <v>64.474999999999994</v>
+      </c>
+      <c r="D9">
+        <v>59.859000000000002</v>
+      </c>
+      <c r="E9">
+        <v>65.882000000000005</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>64.294000000000011</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.7501609043835975</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>90.733000000000004</v>
+        <v>92.484999999999999</v>
       </c>
       <c r="B10">
-        <v>92.287000000000006</v>
+        <v>92.938000000000002</v>
       </c>
       <c r="C10">
-        <v>96.091999999999999</v>
+        <v>92.462999999999994</v>
       </c>
       <c r="D10">
-        <v>90.497</v>
+        <v>92.052000000000007</v>
       </c>
       <c r="E10">
-        <v>90.216999999999999</v>
+        <v>92.346000000000004</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>91.96520000000001</v>
+        <v>92.456800000000001</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="1"/>
-        <v>2.4425480957393648</v>
+        <v>0.31958050628910234</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>98.69</v>
+        <v>86.674000000000007</v>
       </c>
       <c r="B11">
-        <v>99.06</v>
+        <v>86.694999999999993</v>
       </c>
       <c r="C11">
-        <v>98.805000000000007</v>
+        <v>86.269000000000005</v>
       </c>
       <c r="D11">
-        <v>97.641000000000005</v>
+        <v>85.936999999999998</v>
       </c>
       <c r="E11">
-        <v>98.01</v>
+        <v>86.5</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>98.441200000000009</v>
+        <v>86.415000000000006</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>0.59232989119239832</v>
+        <v>0.31721680283364573</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>96.013999999999996</v>
+        <v>99.436999999999998</v>
       </c>
       <c r="B12">
-        <v>96.287000000000006</v>
+        <v>99.5</v>
       </c>
       <c r="C12">
-        <v>96.238</v>
+        <v>99.501000000000005</v>
       </c>
       <c r="D12">
-        <v>93.682000000000002</v>
+        <v>99.230999999999995</v>
       </c>
       <c r="E12">
-        <v>94.451999999999998</v>
+        <v>99.456999999999994</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>95.334599999999995</v>
+        <v>99.42519999999999</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>1.1931943680725283</v>
+        <v>0.11203213824613273</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>99.992999999999995</v>
+        <v>47.655999999999999</v>
       </c>
       <c r="B13">
-        <v>99.995000000000005</v>
+        <v>47.524999999999999</v>
       </c>
       <c r="C13">
-        <v>99.994</v>
+        <v>45.536000000000001</v>
       </c>
       <c r="D13">
-        <v>99.989000000000004</v>
+        <v>50.174999999999997</v>
       </c>
       <c r="E13">
-        <v>99.989000000000004</v>
+        <v>45.89</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>99.992000000000004</v>
+        <v>47.356399999999994</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>2.8284271247446227E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>28.571000000000002</v>
-      </c>
-      <c r="B14">
-        <v>39.996000000000002</v>
-      </c>
-      <c r="C14">
-        <v>33.420999999999999</v>
-      </c>
-      <c r="D14">
-        <v>27.302</v>
-      </c>
-      <c r="E14">
-        <v>33.640999999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>32.586199999999998</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>5.0189448791554092</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>97.033000000000001</v>
-      </c>
-      <c r="B19">
-        <v>97.915999999999997</v>
-      </c>
-      <c r="C19">
-        <v>97.831999999999994</v>
-      </c>
-      <c r="D19">
-        <v>97.747</v>
-      </c>
-      <c r="E19">
-        <v>98.947000000000003</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>97.89500000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.68484706321922784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>99.231999999999999</v>
-      </c>
-      <c r="B20">
-        <v>99.296000000000006</v>
-      </c>
-      <c r="C20">
-        <v>99.004000000000005</v>
-      </c>
-      <c r="D20">
-        <v>99.045000000000002</v>
-      </c>
-      <c r="E20">
-        <v>99.262</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>99.167800000000014</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13354849306525293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>96.242000000000004</v>
-      </c>
-      <c r="B21">
-        <v>96.768000000000001</v>
-      </c>
-      <c r="C21">
-        <v>96.784999999999997</v>
-      </c>
-      <c r="D21">
-        <v>96.76</v>
-      </c>
-      <c r="E21">
-        <v>97.725999999999999</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>96.856199999999987</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>0.53756320558609483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>99.878</v>
-      </c>
-      <c r="B22">
-        <v>99.885999999999996</v>
-      </c>
-      <c r="C22">
-        <v>99.83</v>
-      </c>
-      <c r="D22">
-        <v>99.838999999999999</v>
-      </c>
-      <c r="E22">
-        <v>99.89</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" si="0"/>
-        <v>99.864599999999996</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7996428343629993E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>95.855999999999995</v>
-      </c>
-      <c r="B23">
-        <v>96.378</v>
-      </c>
-      <c r="C23">
-        <v>93.971000000000004</v>
-      </c>
-      <c r="D23">
-        <v>95.165000000000006</v>
-      </c>
-      <c r="E23">
-        <v>93.46</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="0"/>
-        <v>94.965999999999994</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2332382170529752</v>
+        <v>1.8389451595955748</v>
       </c>
     </row>
   </sheetData>

--- a/SVHN/abalation/original/count.xlsx
+++ b/SVHN/abalation/original/count.xlsx
@@ -22,13 +22,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -75,10 +81,10 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -408,7 +414,7 @@
     <col min="8" max="8" style="8" width="9.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1">
         <v>94.81</v>
       </c>
@@ -442,7 +448,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>69.96</v>
       </c>
@@ -466,7 +472,7 @@
         <f>AVERAGE(STDEV(A3:E3))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1">
         <v>95.668</v>
       </c>
@@ -490,7 +496,7 @@
         <f>AVERAGE(STDEV(A4:E4))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>90.007</v>
       </c>
@@ -514,7 +520,7 @@
         <f>AVERAGE(STDEV(A5:E5))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1">
         <v>98.409</v>
       </c>
@@ -538,7 +544,7 @@
         <f>AVERAGE(STDEV(A6:E6))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>87.587</v>
       </c>
@@ -572,7 +578,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1">
         <v>64.131</v>
       </c>
@@ -596,7 +602,7 @@
         <f>AVERAGE(STDEV(A9:E9))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1">
         <v>92.485</v>
       </c>
@@ -620,7 +626,7 @@
         <f>AVERAGE(STDEV(A10:E10))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1">
         <v>86.674</v>
       </c>
@@ -644,7 +650,7 @@
         <f>AVERAGE(STDEV(A11:E11))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1">
         <v>99.437</v>
       </c>
@@ -668,7 +674,7 @@
         <f>AVERAGE(STDEV(A12:E12))</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1">
         <v>47.656</v>
       </c>
